--- a/uploads/input.xlsx
+++ b/uploads/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB84ED99-4EFB-4D8D-A472-7B05468F3928}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC65957-BA57-43F4-9987-E26D83B8B775}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -421,7 +421,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -432,9 +432,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -455,6 +452,16 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -677,22 +684,22 @@
   <dimension ref="A1:DZ6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="31.140625" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="4.140625" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.7109375" customWidth="1"/>
     <col min="7" max="7" width="7.5703125" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
     <col min="9" max="9" width="9.85546875" customWidth="1"/>
     <col min="10" max="10" width="12.5703125" customWidth="1"/>
     <col min="11" max="11" width="10.7109375" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" customWidth="1"/>
+    <col min="12" max="12" width="32.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
     <col min="14" max="14" width="11.85546875" customWidth="1"/>
     <col min="15" max="15" width="11" customWidth="1"/>
@@ -1190,10 +1197,10 @@
       <c r="A2">
         <v>1032170367</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="13" t="s">
         <v>52</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -1220,7 +1227,7 @@
       <c r="K2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="14" t="s">
         <v>53</v>
       </c>
       <c r="M2" s="3" t="s">
@@ -1571,7 +1578,7 @@
       <c r="DX2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="DY2" s="7" t="s">
+      <c r="DY2" s="6" t="s">
         <v>60</v>
       </c>
       <c r="DZ2" s="3" t="s">
@@ -1582,391 +1589,391 @@
       <c r="A3">
         <v>3432170234</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="10">
+      <c r="D3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="9">
         <v>34350</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="8" t="s">
+      <c r="F3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="10">
         <v>1568575868</v>
       </c>
-      <c r="I3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="12" t="s">
+      <c r="I3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="N3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="R3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="S3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="T3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="U3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="V3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="W3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="X3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AL3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AM3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AN3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AO3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AP3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AR3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AS3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AU3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AV3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AX3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AY3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AZ3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BA3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BB3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BC3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BD3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BE3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BF3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BG3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BH3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BI3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BJ3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BK3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BL3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BM3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BN3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BP3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BQ3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BR3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BS3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BT3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BU3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BV3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BW3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BX3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BY3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BZ3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="CA3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="CB3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="CC3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="CD3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="CE3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="CF3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="CG3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="CH3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="CI3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="CJ3" s="8" t="s">
+      <c r="N3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="W3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BA3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BE3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BF3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BG3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BH3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BI3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BJ3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BK3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BL3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BM3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BN3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BO3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BP3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BQ3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BR3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BS3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BT3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BU3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BV3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BW3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BX3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BY3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BZ3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="CA3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="CB3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="CC3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="CD3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="CE3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="CF3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="CG3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="CH3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="CI3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="CJ3" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="CK3" s="13">
+      <c r="CK3" s="12">
         <v>43986</v>
       </c>
-      <c r="CL3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="CM3" s="8" t="s">
+      <c r="CL3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="CM3" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="CN3" s="8" t="s">
+      <c r="CN3" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="CO3" s="8" t="s">
+      <c r="CO3" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="CP3" s="8" t="s">
+      <c r="CP3" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="CQ3" s="8" t="s">
+      <c r="CQ3" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="CR3" s="8" t="s">
+      <c r="CR3" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="CS3" s="8" t="s">
+      <c r="CS3" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="CT3" s="8" t="s">
+      <c r="CT3" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="CU3" s="8" t="s">
+      <c r="CU3" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="CV3" s="8" t="s">
+      <c r="CV3" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="CW3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="CX3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="CY3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="CZ3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DA3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DB3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DC3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DD3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DE3" s="12" t="s">
+      <c r="CW3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="CX3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="CY3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="CZ3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="DA3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="DB3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="DC3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="DD3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="DE3" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="DF3" s="12" t="s">
+      <c r="DF3" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="DG3" s="8" t="s">
+      <c r="DG3" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="DH3" s="11">
+      <c r="DH3" s="10">
         <v>19115</v>
       </c>
-      <c r="DI3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DJ3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DK3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DL3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DM3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DN3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DO3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DP3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DQ3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DR3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DS3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DT3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DU3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DV3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DW3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DX3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DY3" s="12" t="s">
+      <c r="DI3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="DJ3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="DK3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="DL3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="DM3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="DN3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="DO3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="DP3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="DQ3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="DR3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="DS3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="DT3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="DU3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="DV3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="DW3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="DX3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="DY3" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="DZ3" s="8" t="s">
+      <c r="DZ3" s="7" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1974,391 +1981,391 @@
       <c r="A4">
         <v>2032175671</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="13">
+      <c r="D4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="12">
         <v>32916</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="8" t="s">
+      <c r="F4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="10">
         <v>1114141793</v>
       </c>
-      <c r="I4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="L4" s="11">
+      <c r="I4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="16">
         <v>30.021661999999999</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="M4" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="N4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="R4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="S4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="T4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="U4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="V4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="W4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="X4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AL4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AM4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AN4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AO4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AP4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AQ4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AR4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AS4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AU4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AV4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AX4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AY4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AZ4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BA4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BB4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BC4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BD4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BE4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BF4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BG4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BH4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BI4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BJ4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BK4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BL4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BM4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BN4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BO4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BP4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BQ4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BR4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BS4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BT4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BU4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BV4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BW4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BX4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BY4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BZ4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="CA4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="CB4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="CC4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="CD4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="CE4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="CF4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="CG4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="CH4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="CI4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="CJ4" s="8" t="s">
+      <c r="N4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="U4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="W4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="X4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BA4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BC4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BE4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BF4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BG4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BH4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BI4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BJ4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BK4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BL4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BM4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BN4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BO4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BP4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BQ4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BR4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BS4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BT4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BU4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BV4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BW4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BX4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BY4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BZ4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="CA4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="CB4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="CC4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="CD4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="CE4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="CF4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="CG4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="CH4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="CI4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="CJ4" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="CK4" s="13">
+      <c r="CK4" s="12">
         <v>43863</v>
       </c>
-      <c r="CL4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="CM4" s="8" t="s">
+      <c r="CL4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="CM4" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="CN4" s="8" t="s">
+      <c r="CN4" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="CO4" s="8" t="s">
+      <c r="CO4" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="CP4" s="8" t="s">
+      <c r="CP4" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="CQ4" s="8" t="s">
+      <c r="CQ4" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="CR4" s="8" t="s">
+      <c r="CR4" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="CS4" s="8" t="s">
+      <c r="CS4" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="CT4" s="8" t="s">
+      <c r="CT4" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="CU4" s="8" t="s">
+      <c r="CU4" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="CV4" s="8" t="s">
+      <c r="CV4" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="CW4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="CX4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="CY4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="CZ4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DA4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DB4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DC4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DD4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DE4" s="8" t="s">
+      <c r="CW4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="CX4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="CY4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="CZ4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="DA4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="DB4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="DC4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="DD4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="DE4" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="DF4" s="8" t="s">
+      <c r="DF4" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="DG4" s="8" t="s">
+      <c r="DG4" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="DH4" s="8" t="s">
+      <c r="DH4" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="DI4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DJ4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DK4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DL4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DM4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DN4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DO4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DP4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DQ4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DR4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DS4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DT4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DU4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DV4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DW4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DX4" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DY4" s="8" t="s">
+      <c r="DI4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="DJ4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="DK4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="DL4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="DM4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="DN4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="DO4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="DP4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="DQ4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="DR4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="DS4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="DT4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="DU4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="DV4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="DW4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="DX4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="DY4" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="DZ4" s="8" t="s">
+      <c r="DZ4" s="7" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2366,391 +2373,391 @@
       <c r="A5">
         <v>1037036721</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="10">
+      <c r="D5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="9">
         <v>34316</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="8" t="s">
+      <c r="F5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="10">
         <v>1336619469</v>
       </c>
-      <c r="I5" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="L5" s="11">
-        <v>863927</v>
-      </c>
-      <c r="M5" s="8" t="s">
+      <c r="I5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="16">
+        <v>34742</v>
+      </c>
+      <c r="M5" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="N5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="P5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="R5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="S5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="T5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="U5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="V5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="W5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="X5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AL5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AM5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AN5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AO5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AP5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AQ5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AR5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AS5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AU5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AV5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AX5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AY5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AZ5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BA5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BB5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BC5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BD5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BE5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BF5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BG5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BH5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BI5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BJ5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BK5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BL5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BM5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BN5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BO5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BP5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BQ5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BR5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BS5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BT5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BU5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BV5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BW5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BX5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BY5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BZ5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="CA5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="CB5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="CC5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="CD5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="CE5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="CF5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="CG5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="CH5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="CI5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="CJ5" s="8" t="s">
+      <c r="N5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="U5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="W5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="X5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BA5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BC5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BE5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BF5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BG5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BH5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BI5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BJ5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BK5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BL5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BM5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BN5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BO5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BP5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BQ5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BR5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BS5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BT5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BU5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BV5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BW5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BX5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BY5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BZ5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="CA5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="CB5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="CC5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="CD5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="CE5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="CF5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="CG5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="CH5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="CI5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="CJ5" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="CK5" s="13">
+      <c r="CK5" s="12">
         <v>43893</v>
       </c>
-      <c r="CL5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="CM5" s="8" t="s">
+      <c r="CL5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="CM5" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="CN5" s="8" t="s">
+      <c r="CN5" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="CO5" s="8" t="s">
+      <c r="CO5" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="CP5" s="8" t="s">
+      <c r="CP5" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="CQ5" s="8" t="s">
+      <c r="CQ5" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="CR5" s="8" t="s">
+      <c r="CR5" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="CS5" s="8" t="s">
+      <c r="CS5" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="CT5" s="8" t="s">
+      <c r="CT5" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="CU5" s="8" t="s">
+      <c r="CU5" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="CV5" s="8" t="s">
+      <c r="CV5" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="CW5" s="8" t="s">
+      <c r="CW5" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="CX5" s="11">
+      <c r="CX5" s="10">
         <v>2012</v>
       </c>
-      <c r="CY5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="CZ5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DA5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DB5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DC5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DD5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DE5" s="12" t="s">
+      <c r="CY5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="CZ5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="DA5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="DB5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="DC5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="DD5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="DE5" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="DF5" s="8" t="s">
+      <c r="DF5" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="DG5" s="8" t="s">
+      <c r="DG5" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="DH5" s="12" t="s">
+      <c r="DH5" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="DI5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DJ5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DK5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DL5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DM5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DN5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DO5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DP5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DQ5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DR5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DS5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DT5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DU5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DV5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DW5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DX5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DY5" s="12" t="s">
+      <c r="DI5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="DJ5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="DK5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="DL5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="DM5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="DN5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="DO5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="DP5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="DQ5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="DR5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="DS5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="DT5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="DU5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="DV5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="DW5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="DX5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="DY5" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="DZ5" s="8" t="s">
+      <c r="DZ5" s="7" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2758,391 +2765,391 @@
       <c r="A6">
         <v>4103703647</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="13">
+      <c r="D6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="12">
         <v>32944</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="G6" s="8" t="s">
+      <c r="F6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="10">
         <v>1306289772</v>
       </c>
-      <c r="I6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="L6" s="8" t="s">
+      <c r="I6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="M6" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="N6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="O6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="R6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="S6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="T6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="U6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="V6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="W6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="X6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="Y6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="Z6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AL6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AM6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AN6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AO6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AP6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AQ6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AR6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AS6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AU6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AV6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AX6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AY6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AZ6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BA6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BB6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BC6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BD6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BE6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BF6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BG6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BH6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BI6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BJ6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BK6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BL6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BM6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BN6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BO6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BP6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BQ6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BR6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BS6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BT6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BU6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BV6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BW6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BX6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BY6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="BZ6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="CA6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="CB6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="CC6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="CD6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="CE6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="CF6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="CG6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="CH6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="CI6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="CJ6" s="8" t="s">
+      <c r="N6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="S6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="T6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="U6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="V6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="W6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="X6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AO6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AZ6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BA6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BB6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BC6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BE6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BF6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BG6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BH6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BI6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BJ6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BK6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BL6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BM6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BN6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BO6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BP6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BQ6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BR6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BS6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BT6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BU6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BV6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BW6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BX6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BY6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="BZ6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="CA6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="CB6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="CC6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="CD6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="CE6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="CF6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="CG6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="CH6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="CI6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="CJ6" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="CK6" s="13">
+      <c r="CK6" s="12">
         <v>43863</v>
       </c>
-      <c r="CL6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="CM6" s="8" t="s">
+      <c r="CL6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="CM6" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="CN6" s="8" t="s">
+      <c r="CN6" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="CO6" s="8" t="s">
+      <c r="CO6" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="CP6" s="8" t="s">
+      <c r="CP6" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="CQ6" s="8" t="s">
+      <c r="CQ6" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="CR6" s="8" t="s">
+      <c r="CR6" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="CS6" s="8" t="s">
+      <c r="CS6" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="CT6" s="8" t="s">
+      <c r="CT6" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="CU6" s="8" t="s">
+      <c r="CU6" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="CV6" s="8" t="s">
+      <c r="CV6" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="CW6" s="8" t="s">
+      <c r="CW6" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="CX6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="CY6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="CZ6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DA6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DB6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DC6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DD6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DE6" s="12" t="s">
+      <c r="CX6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="CY6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="CZ6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="DA6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="DB6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="DC6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="DD6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="DE6" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="DF6" s="8" t="s">
+      <c r="DF6" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="DG6" s="8" t="s">
+      <c r="DG6" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="DH6" s="12" t="s">
+      <c r="DH6" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="DI6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DJ6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DK6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DL6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DM6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DN6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DO6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DP6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DQ6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DR6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DS6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DT6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DU6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DV6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DW6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DX6" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="DY6" s="12" t="s">
+      <c r="DI6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="DJ6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="DK6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="DL6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="DM6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="DN6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="DO6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="DP6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="DQ6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="DR6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="DS6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="DT6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="DU6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="DV6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="DW6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="DX6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="DY6" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="DZ6" s="8" t="s">
+      <c r="DZ6" s="7" t="s">
         <v>105</v>
       </c>
     </row>
